--- a/Priject timeline.xlsx
+++ b/Priject timeline.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dreamlnwzza007\Desktop\Work\PROJECT\รูปเล่ม\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dreamlnwzza007\Desktop\PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BB13E3-F80D-4F1A-9537-FFF93EA3124C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A715CC-ACC4-4979-873C-4702B30F92AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,13 +119,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1063,7 +1063,7 @@
   <dimension ref="A1:AV19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1076,10 +1076,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5">
@@ -1153,581 +1153,581 @@
       </c>
       <c r="AV1" s="5"/>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>2</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>3</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>4</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="4">
         <v>1</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="4">
         <v>2</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="4">
         <v>3</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="4">
         <v>4</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="4">
         <v>1</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="4">
         <v>2</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="4">
         <v>3</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="4">
         <v>4</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="4">
         <v>1</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="4">
         <v>2</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="4">
         <v>3</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2" s="4">
         <v>4</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S2" s="4">
         <v>1</v>
       </c>
-      <c r="T2" s="6">
+      <c r="T2" s="4">
         <v>2</v>
       </c>
-      <c r="U2" s="6">
+      <c r="U2" s="4">
         <v>3</v>
       </c>
-      <c r="V2" s="6">
+      <c r="V2" s="4">
         <v>4</v>
       </c>
-      <c r="W2" s="6">
+      <c r="W2" s="4">
         <v>1</v>
       </c>
-      <c r="X2" s="6">
+      <c r="X2" s="4">
         <v>2</v>
       </c>
-      <c r="Y2" s="6">
+      <c r="Y2" s="4">
         <v>3</v>
       </c>
-      <c r="Z2" s="6">
+      <c r="Z2" s="4">
         <v>4</v>
       </c>
-      <c r="AA2" s="6">
+      <c r="AA2" s="4">
         <v>1</v>
       </c>
-      <c r="AB2" s="6">
+      <c r="AB2" s="4">
         <v>2</v>
       </c>
-      <c r="AC2" s="6">
+      <c r="AC2" s="4">
         <v>3</v>
       </c>
-      <c r="AD2" s="6">
+      <c r="AD2" s="4">
         <v>4</v>
       </c>
-      <c r="AE2" s="6">
+      <c r="AE2" s="4">
         <v>1</v>
       </c>
-      <c r="AF2" s="6">
+      <c r="AF2" s="4">
         <v>2</v>
       </c>
-      <c r="AG2" s="6">
+      <c r="AG2" s="4">
         <v>3</v>
       </c>
-      <c r="AH2" s="6">
+      <c r="AH2" s="4">
         <v>4</v>
       </c>
-      <c r="AI2" s="6">
+      <c r="AI2" s="4">
         <v>1</v>
       </c>
-      <c r="AJ2" s="6">
+      <c r="AJ2" s="4">
         <v>2</v>
       </c>
-      <c r="AK2" s="6">
+      <c r="AK2" s="4">
         <v>3</v>
       </c>
-      <c r="AL2" s="6">
+      <c r="AL2" s="4">
         <v>4</v>
       </c>
-      <c r="AM2" s="6">
+      <c r="AM2" s="4">
         <v>1</v>
       </c>
-      <c r="AN2" s="6">
+      <c r="AN2" s="4">
         <v>2</v>
       </c>
-      <c r="AO2" s="6">
+      <c r="AO2" s="4">
         <v>3</v>
       </c>
-      <c r="AP2" s="6">
+      <c r="AP2" s="4">
         <v>4</v>
       </c>
-      <c r="AQ2" s="6">
+      <c r="AQ2" s="4">
         <v>1</v>
       </c>
-      <c r="AR2" s="6">
+      <c r="AR2" s="4">
         <v>2</v>
       </c>
-      <c r="AS2" s="6">
+      <c r="AS2" s="4">
         <v>3</v>
       </c>
-      <c r="AT2" s="6">
+      <c r="AT2" s="4">
         <v>4</v>
       </c>
-      <c r="AU2" s="6">
+      <c r="AU2" s="4">
         <v>1</v>
       </c>
-      <c r="AV2" s="6">
+      <c r="AV2" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+    <row r="3" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
-      <c r="AK3" s="4"/>
-      <c r="AL3" s="4"/>
-      <c r="AM3" s="4"/>
-      <c r="AN3" s="4"/>
-      <c r="AO3" s="4"/>
-      <c r="AP3" s="4"/>
-      <c r="AQ3" s="4"/>
-      <c r="AR3" s="4"/>
-      <c r="AS3" s="4"/>
-      <c r="AT3" s="4"/>
-      <c r="AU3" s="4"/>
-      <c r="AV3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+    <row r="4" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="4"/>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="4"/>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+    <row r="5" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="4"/>
-      <c r="AM5" s="4"/>
-      <c r="AN5" s="4"/>
-      <c r="AO5" s="4"/>
-      <c r="AP5" s="4"/>
-      <c r="AQ5" s="4"/>
-      <c r="AR5" s="4"/>
-      <c r="AS5" s="4"/>
-      <c r="AT5" s="4"/>
-      <c r="AU5" s="4"/>
-      <c r="AV5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3"/>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+    <row r="6" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="4"/>
-      <c r="AM6" s="4"/>
-      <c r="AN6" s="4"/>
-      <c r="AO6" s="4"/>
-      <c r="AP6" s="4"/>
-      <c r="AQ6" s="4"/>
-      <c r="AR6" s="4"/>
-      <c r="AS6" s="4"/>
-      <c r="AT6" s="4"/>
-      <c r="AU6" s="4"/>
-      <c r="AV6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+    <row r="7" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
-      <c r="AS7" s="4"/>
-      <c r="AT7" s="4"/>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+    <row r="8" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4"/>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="4"/>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+    <row r="9" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="4"/>
-      <c r="AM9" s="4"/>
-      <c r="AN9" s="4"/>
-      <c r="AO9" s="4"/>
-      <c r="AP9" s="4"/>
-      <c r="AQ9" s="4"/>
-      <c r="AR9" s="4"/>
-      <c r="AS9" s="4"/>
-      <c r="AT9" s="4"/>
-      <c r="AU9" s="4"/>
-      <c r="AV9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3"/>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+    <row r="10" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="4"/>
-      <c r="AH10" s="4"/>
-      <c r="AI10" s="4"/>
-      <c r="AJ10" s="4"/>
-      <c r="AK10" s="4"/>
-      <c r="AL10" s="4"/>
-      <c r="AM10" s="4"/>
-      <c r="AN10" s="4"/>
-      <c r="AO10" s="4"/>
-      <c r="AP10" s="4"/>
-      <c r="AQ10" s="4"/>
-      <c r="AR10" s="4"/>
-      <c r="AS10" s="4"/>
-      <c r="AT10" s="4"/>
-      <c r="AU10" s="4"/>
-      <c r="AV10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3"/>
+      <c r="AV10" s="3"/>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
@@ -2181,11 +2181,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="AU1:AV1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:J1"/>
@@ -2194,6 +2189,11 @@
     <mergeCell ref="S1:V1"/>
     <mergeCell ref="W1:Z1"/>
     <mergeCell ref="C1:F1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="AQ1:AT1"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>

--- a/Priject timeline.xlsx
+++ b/Priject timeline.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dreamlnwzza007\Desktop\PROJECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\Desktop\PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A715CC-ACC4-4979-873C-4702B30F92AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DE442D-0239-4359-BFC8-F20A0F149121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -209,15 +209,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>54666</xdr:colOff>
+      <xdr:colOff>28390</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
+      <xdr:rowOff>39226</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>179110</xdr:colOff>
+      <xdr:colOff>143309</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>155239</xdr:rowOff>
+      <xdr:rowOff>161808</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -232,8 +232,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4142252" y="1649186"/>
-          <a:ext cx="124444" cy="122582"/>
+          <a:off x="3555924" y="3277726"/>
+          <a:ext cx="114919" cy="122582"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -267,15 +267,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>45929</xdr:colOff>
+      <xdr:colOff>26222</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>32227</xdr:rowOff>
+      <xdr:rowOff>25658</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>170373</xdr:colOff>
+      <xdr:colOff>150666</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>154809</xdr:rowOff>
+      <xdr:rowOff>148240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -290,7 +290,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5931376" y="1656490"/>
+          <a:off x="5090894" y="3264158"/>
           <a:ext cx="124444" cy="122582"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -325,13 +325,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>42204</xdr:colOff>
+      <xdr:colOff>22497</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>37669</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>165788</xdr:colOff>
+      <xdr:colOff>146081</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>160251</xdr:rowOff>
     </xdr:to>
@@ -348,7 +348,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7932915" y="1661932"/>
+          <a:off x="6795100" y="3276169"/>
           <a:ext cx="123584" cy="122582"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -791,6 +791,476 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1977259</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>262759</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>262759</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE346779-3D6C-B534-8263-DFDE78C0D340}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2148052" y="834259"/>
+          <a:ext cx="525517" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6569</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>275897</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>157655</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>282466</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E55E73C-3814-0B1E-B35B-B299153660C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2680138" y="1228397"/>
+          <a:ext cx="1175845" cy="6569"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>6569</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>256190</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>151086</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>262759</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BA264E0-2193-7311-05FA-364B200ACD19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3534103" y="1589690"/>
+          <a:ext cx="1852449" cy="6569"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>164224</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>256190</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>164225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>262759</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{987373A5-A986-C0DC-1E5C-DEFE89293717}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2837793" y="1970690"/>
+          <a:ext cx="683173" cy="6569"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>275897</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>164224</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>275897</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D1F17E6-4097-C7AF-8397-EBB52DD71FAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3698328" y="2752397"/>
+          <a:ext cx="1701362" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>289034</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>164224</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>289034</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4562604-9051-179C-5BB9-A1004B10FEB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3185948" y="3146534"/>
+          <a:ext cx="2213742" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>23135</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>211333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>138054</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>333915</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Oval 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{687FD993-9C28-4674-B767-5B397342EB34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3550669" y="3449833"/>
+          <a:ext cx="114919" cy="122582"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="th-TH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>32845</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>197069</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>147764</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>319651</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Oval 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C5748E7-85D5-41BA-9F8F-D8793941006B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5268311" y="3435569"/>
+          <a:ext cx="114919" cy="122582"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="th-TH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1062,20 +1532,20 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AV19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="AU15" sqref="AU15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.875" style="1" customWidth="1"/>
-    <col min="3" max="46" width="2.625" style="1" customWidth="1"/>
-    <col min="47" max="48" width="3.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="1" customWidth="1"/>
+    <col min="3" max="46" width="2.5703125" style="1" customWidth="1"/>
+    <col min="47" max="48" width="3.42578125" style="1" customWidth="1"/>
     <col min="49" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1153,7 +1623,7 @@
       </c>
       <c r="AV1" s="5"/>
     </row>
-    <row r="2" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -1297,7 +1767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1351,7 +1821,7 @@
       <c r="AU3" s="3"/>
       <c r="AV3" s="3"/>
     </row>
-    <row r="4" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1405,7 +1875,7 @@
       <c r="AU4" s="3"/>
       <c r="AV4" s="3"/>
     </row>
-    <row r="5" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1459,7 +1929,7 @@
       <c r="AU5" s="3"/>
       <c r="AV5" s="3"/>
     </row>
-    <row r="6" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1513,7 +1983,7 @@
       <c r="AU6" s="3"/>
       <c r="AV6" s="3"/>
     </row>
-    <row r="7" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1567,7 +2037,7 @@
       <c r="AU7" s="3"/>
       <c r="AV7" s="3"/>
     </row>
-    <row r="8" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1621,7 +2091,7 @@
       <c r="AU8" s="3"/>
       <c r="AV8" s="3"/>
     </row>
-    <row r="9" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1675,7 +2145,7 @@
       <c r="AU9" s="3"/>
       <c r="AV9" s="3"/>
     </row>
-    <row r="10" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1729,7 +2199,7 @@
       <c r="AU10" s="3"/>
       <c r="AV10" s="3"/>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1779,24 +2249,9 @@
       <c r="AU11" s="2"/>
       <c r="AV11" s="2"/>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
@@ -1829,24 +2284,9 @@
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
@@ -1879,24 +2319,11 @@
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
@@ -1929,18 +2356,11 @@
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1979,21 +2399,11 @@
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -2029,7 +2439,7 @@
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2040,10 +2450,6 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -2079,7 +2485,7 @@
       <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2092,9 +2498,6 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
@@ -2129,7 +2532,7 @@
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2142,10 +2545,6 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
